--- a/techniqo/data_new_ticker/LTTS.xlsx
+++ b/techniqo/data_new_ticker/LTTS.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G985"/>
+  <dimension ref="A1:G987"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34861,6 +34861,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="986">
+      <c r="A986" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B986" t="n">
+        <v>1609.45</v>
+      </c>
+      <c r="C986" t="n">
+        <v>1640.5</v>
+      </c>
+      <c r="D986" t="n">
+        <v>1604</v>
+      </c>
+      <c r="E986" t="n">
+        <v>1618.9</v>
+      </c>
+      <c r="F986" t="n">
+        <v>137389</v>
+      </c>
+      <c r="G986" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B987" t="n">
+        <v>1631.35</v>
+      </c>
+      <c r="C987" t="n">
+        <v>1669.9</v>
+      </c>
+      <c r="D987" t="n">
+        <v>1625</v>
+      </c>
+      <c r="E987" t="n">
+        <v>1646.2</v>
+      </c>
+      <c r="F987" t="n">
+        <v>87116</v>
+      </c>
+      <c r="G987" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/LTTS.xlsx
+++ b/techniqo/data_new_ticker/LTTS.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G987"/>
+  <dimension ref="A1:G989"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34911,6 +34911,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="988">
+      <c r="A988" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B988" t="n">
+        <v>1641</v>
+      </c>
+      <c r="C988" t="n">
+        <v>1697.85</v>
+      </c>
+      <c r="D988" t="n">
+        <v>1617</v>
+      </c>
+      <c r="E988" t="n">
+        <v>1668.05</v>
+      </c>
+      <c r="F988" t="n">
+        <v>119311</v>
+      </c>
+      <c r="G988" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B989" t="n">
+        <v>1670</v>
+      </c>
+      <c r="C989" t="n">
+        <v>1687</v>
+      </c>
+      <c r="D989" t="n">
+        <v>1638</v>
+      </c>
+      <c r="E989" t="n">
+        <v>1673.05</v>
+      </c>
+      <c r="F989" t="n">
+        <v>58677</v>
+      </c>
+      <c r="G989" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
